--- a/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FAEADF-0AE8-4BFB-9127-5A0FD921BE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5595D2-1017-4894-B37B-CDE634A0CF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="2190" yWindow="240" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,9 +566,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -581,8 +582,11 @@
       <c r="D3" s="10">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -595,8 +599,9 @@
       <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -606,8 +611,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -620,8 +626,11 @@
       <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -634,8 +643,9 @@
       <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -648,8 +658,9 @@
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -662,8 +673,11 @@
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -676,8 +690,9 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -690,8 +705,11 @@
       <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -704,8 +722,11 @@
       <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2068</v>
       </c>
@@ -718,8 +739,9 @@
       <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -732,8 +754,11 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4286</v>
       </c>
@@ -746,8 +771,9 @@
       <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -760,8 +786,11 @@
       <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -774,8 +803,11 @@
       <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -788,8 +820,11 @@
       <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -802,8 +837,11 @@
       <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -816,8 +854,9 @@
       <c r="D20" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -830,8 +869,11 @@
       <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -841,8 +883,11 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -855,8 +900,11 @@
       <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -869,8 +917,11 @@
       <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -883,8 +934,11 @@
       <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -897,8 +951,11 @@
       <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -911,8 +968,11 @@
       <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -925,8 +985,11 @@
       <c r="D28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -939,8 +1002,11 @@
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -953,8 +1019,11 @@
       <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -964,8 +1033,9 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -975,8 +1045,9 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -986,8 +1057,11 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1000,8 +1074,11 @@
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1011,8 +1088,9 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1025,8 +1103,11 @@
       <c r="D36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1039,8 +1120,11 @@
       <c r="D37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="E37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1049,6 +1133,10 @@
       <c r="D38" s="11">
         <f>COUNTA(D4:D37)</f>
         <v>28</v>
+      </c>
+      <c r="E38" s="11">
+        <f>COUNTA(E4:E37)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5595D2-1017-4894-B37B-CDE634A0CF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829AC47-EF95-4A59-8604-5CC9D6903BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="240" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +566,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,8 +585,11 @@
       <c r="E3" s="10">
         <v>44001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -600,8 +603,11 @@
         <v>37</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -612,8 +618,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -629,8 +638,9 @@
       <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -644,8 +654,9 @@
         <v>37</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -659,8 +670,11 @@
         <v>37</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -676,8 +690,11 @@
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -691,8 +708,11 @@
         <v>37</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -708,8 +728,11 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -725,23 +748,27 @@
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>2068</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -757,8 +784,11 @@
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4286</v>
       </c>
@@ -772,8 +802,11 @@
         <v>37</v>
       </c>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -789,8 +822,11 @@
       <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -806,8 +842,11 @@
       <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -823,8 +862,11 @@
       <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -840,8 +882,11 @@
       <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -855,8 +900,11 @@
         <v>37</v>
       </c>
       <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -872,8 +920,11 @@
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -886,8 +937,11 @@
       <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -903,8 +957,11 @@
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -920,8 +977,11 @@
       <c r="E24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -937,8 +997,9 @@
       <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -954,8 +1015,11 @@
       <c r="E26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -971,8 +1035,11 @@
       <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -988,8 +1055,11 @@
       <c r="E28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -1005,8 +1075,11 @@
       <c r="E29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -1022,8 +1095,11 @@
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -1034,8 +1110,9 @@
         <v>30</v>
       </c>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -1046,8 +1123,11 @@
         <v>31</v>
       </c>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -1060,8 +1140,11 @@
       <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1077,8 +1160,11 @@
       <c r="E34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1089,8 +1175,9 @@
         <v>34</v>
       </c>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1106,8 +1193,11 @@
       <c r="E36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1123,8 +1213,11 @@
       <c r="E37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="F37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1137,6 +1230,10 @@
       <c r="E38" s="11">
         <f>COUNTA(E4:E37)</f>
         <v>23</v>
+      </c>
+      <c r="F38" s="11">
+        <f>COUNTA(F4:F37)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829AC47-EF95-4A59-8604-5CC9D6903BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF5563-ED22-4321-9A72-D7BDDCB29404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F38"/>
+  <dimension ref="A3:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,11 +565,12 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,8 +589,11 @@
       <c r="F3" s="10">
         <v>44114</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -606,8 +610,11 @@
       <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -621,8 +628,9 @@
       <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -639,8 +647,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -655,8 +666,11 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -673,8 +687,11 @@
       <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -693,8 +710,9 @@
       <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -711,8 +729,9 @@
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -731,8 +750,11 @@
       <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -751,8 +773,11 @@
       <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2068</v>
       </c>
@@ -767,8 +792,9 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -787,8 +813,11 @@
       <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4286</v>
       </c>
@@ -805,8 +834,11 @@
       <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -825,8 +857,11 @@
       <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -845,8 +880,11 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -865,8 +903,11 @@
       <c r="F18" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -885,8 +926,11 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -903,8 +947,11 @@
       <c r="F20" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -923,8 +970,11 @@
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -940,8 +990,9 @@
       <c r="F22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -960,8 +1011,11 @@
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -980,8 +1034,11 @@
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -998,8 +1055,11 @@
         <v>37</v>
       </c>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -1018,8 +1078,11 @@
       <c r="F26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -1038,8 +1101,11 @@
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -1058,8 +1124,11 @@
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -1078,8 +1147,11 @@
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -1098,8 +1170,11 @@
       <c r="F30" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -1111,8 +1186,9 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -1126,8 +1202,9 @@
       <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -1143,8 +1220,11 @@
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1163,8 +1243,11 @@
       <c r="F34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1176,8 +1259,9 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1196,8 +1280,11 @@
       <c r="F36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1216,8 +1303,11 @@
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="G37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1234,6 +1324,10 @@
       <c r="F38" s="11">
         <f>COUNTA(F4:F37)</f>
         <v>28</v>
+      </c>
+      <c r="G38" s="11">
+        <f>COUNTA(G4:G37)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF5563-ED22-4321-9A72-D7BDDCB29404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F3BDA-5ED6-44CF-A093-BB5CDF74467A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +246,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:G38"/>
+  <dimension ref="A3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,11 +579,11 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="G3" s="10">
         <v>44029</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="10">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1629</v>
       </c>
@@ -613,8 +629,9 @@
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1711</v>
       </c>
@@ -629,8 +646,9 @@
         <v>37</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1983</v>
       </c>
@@ -650,8 +668,11 @@
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1713</v>
       </c>
@@ -669,8 +690,11 @@
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1633</v>
       </c>
@@ -690,8 +714,11 @@
       <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2257</v>
       </c>
@@ -711,8 +738,11 @@
         <v>37</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1689</v>
       </c>
@@ -730,8 +760,11 @@
         <v>37</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4154</v>
       </c>
@@ -753,8 +786,11 @@
       <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>913</v>
       </c>
@@ -776,8 +812,11 @@
       <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2068</v>
       </c>
@@ -793,8 +832,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2373</v>
       </c>
@@ -816,8 +856,11 @@
       <c r="G14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4286</v>
       </c>
@@ -837,8 +880,11 @@
       <c r="G15" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1663</v>
       </c>
@@ -860,8 +906,11 @@
       <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1718</v>
       </c>
@@ -883,8 +932,11 @@
       <c r="G17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2063</v>
       </c>
@@ -906,8 +958,11 @@
       <c r="G18" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1695</v>
       </c>
@@ -929,8 +984,11 @@
       <c r="G19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4287</v>
       </c>
@@ -950,8 +1008,11 @@
       <c r="G20" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1738</v>
       </c>
@@ -973,8 +1034,11 @@
       <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1723</v>
       </c>
@@ -991,8 +1055,11 @@
         <v>37</v>
       </c>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4311</v>
       </c>
@@ -1014,8 +1081,11 @@
       <c r="G23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1724</v>
       </c>
@@ -1037,8 +1107,11 @@
       <c r="G24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1404</v>
       </c>
@@ -1058,8 +1131,11 @@
       <c r="G25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3850</v>
       </c>
@@ -1081,8 +1157,11 @@
       <c r="G26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1996</v>
       </c>
@@ -1104,8 +1183,11 @@
       <c r="G27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2593</v>
       </c>
@@ -1127,8 +1209,11 @@
       <c r="G28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1801</v>
       </c>
@@ -1150,8 +1235,11 @@
       <c r="G29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1795</v>
       </c>
@@ -1173,8 +1261,11 @@
       <c r="G30" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4288</v>
       </c>
@@ -1187,8 +1278,9 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3197</v>
       </c>
@@ -1203,8 +1295,9 @@
         <v>37</v>
       </c>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3272</v>
       </c>
@@ -1223,8 +1316,11 @@
       <c r="G33" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>693</v>
       </c>
@@ -1246,8 +1342,11 @@
       <c r="G34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1764</v>
       </c>
@@ -1260,8 +1359,9 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3877</v>
       </c>
@@ -1283,8 +1383,11 @@
       <c r="G36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1708</v>
       </c>
@@ -1306,8 +1409,11 @@
       <c r="G37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="H37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1328,6 +1434,10 @@
       <c r="G38" s="11">
         <f>COUNTA(G4:G37)</f>
         <v>26</v>
+      </c>
+      <c r="H38" s="11">
+        <f>COUNTA(H4:H37)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
